--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347FF93-ACE4-BF43-A117-9FA08356DBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233968BC-CA40-5F49-9286-BB74850BE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55100" yWindow="100" windowWidth="38400" windowHeight="22540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68260" yWindow="-1500" windowWidth="38400" windowHeight="22540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>active</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>待办队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +680,7 @@
   <dimension ref="A5:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -726,6 +738,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="12" spans="1:11">
       <c r="A12" s="9"/>
       <c r="D12" s="3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233968BC-CA40-5F49-9286-BB74850BE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31C6FD-9E6E-0B4F-8AF1-EF30C955E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68260" yWindow="-1500" windowWidth="38400" windowHeight="22540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>active</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42a2877f-0ac2-479e-9fee-c15a9fc6e287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A5:K15"/>
+  <dimension ref="A5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -749,105 +757,116 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="K12" s="9"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31C6FD-9E6E-0B4F-8AF1-EF30C955E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A1D9E-2CAD-714E-8A4F-4FDBFD963C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68260" yWindow="-1500" windowWidth="38400" windowHeight="22540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70840" yWindow="520" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>active</t>
   </si>
@@ -157,6 +157,20 @@
   </si>
   <si>
     <t>读取流程表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f0174ff-2f59-4858-9c94-aaa093fe887d</t>
+  </si>
+  <si>
+    <t>12bb17f2-233a-4eef-99ca-0037edc55088</t>
+  </si>
+  <si>
+    <t>开启工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行工作流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A5:K16"/>
+  <dimension ref="A5:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -768,105 +782,127 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A1D9E-2CAD-714E-8A4F-4FDBFD963C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F290E9-2A25-0F4E-B573-C9B0AF2CB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70840" yWindow="520" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>active</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>执行工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>671f658b-5654-4838-b0ec-def790b91dc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取待办单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A5:K18"/>
+  <dimension ref="A5:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -804,105 +812,116 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="K15" s="9"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F290E9-2A25-0F4E-B573-C9B0AF2CB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066FFBA6-27C9-6D43-BEBA-A54AB42C20C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70840" yWindow="520" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="40180" yWindow="-15680" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>active</t>
   </si>
@@ -179,6 +179,20 @@
   </si>
   <si>
     <t>读取待办单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee28b115-1345-40a7-bd10-bc61607eebbc</t>
+  </si>
+  <si>
+    <t>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</t>
+  </si>
+  <si>
+    <t>保存草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量执行工作流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A5:K19"/>
+  <dimension ref="A5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -728,7 +742,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -748,7 +762,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -757,7 +771,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -768,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -779,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -790,7 +804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
@@ -801,7 +815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
@@ -812,7 +826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
@@ -823,105 +837,127 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
